--- a/biology/Médecine/Galactosémie/Galactosémie.xlsx
+++ b/biology/Médecine/Galactosémie/Galactosémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Galactos%C3%A9mie</t>
+          <t>Galactosémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le terme galactosémie a deux significations : c'est la concentration de galactose dans le sang, qui est normalement inférieure à 45 mg·l-1, mais il est surtout employé pour désigner une maladie congénitale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Galactos%C3%A9mie</t>
+          <t>Galactosémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La galactosémie est une maladie génétique par anomalie du métabolisme des glucides. Ce trouble entraîne des manifestations graves pouvant menacer la vie de l'enfant atteint en l'absence de traitement.
 Ces troubles sont : le refus de boire, des difficultés de l'alimentation, les vomissements, la diarrhée, une insuffisance hépatique liée à une hépatomégalie, des saignements et des infections graves, un ictère, un état léthargique, un œdème et une ascite.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Galactos%C3%A9mie</t>
+          <t>Galactosémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une transmission autosomique récessive.
 </t>
